--- a/experimental_data/liver_bloodflow/Sheriff1977.xlsx
+++ b/experimental_data/liver_bloodflow/Sheriff1977.xlsx
@@ -934,15 +934,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>323280</xdr:colOff>
+      <xdr:colOff>350280</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>12960</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:colOff>39600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -957,8 +957,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9875880" y="654120"/>
-          <a:ext cx="4876560" cy="3760200"/>
+          <a:off x="9902880" y="645120"/>
+          <a:ext cx="4876200" cy="3759840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -973,15 +973,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>343800</xdr:colOff>
+      <xdr:colOff>370800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>557280</xdr:colOff>
+      <xdr:colOff>583920</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -996,8 +996,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9896400" y="4509000"/>
-          <a:ext cx="4587480" cy="4527000"/>
+          <a:off x="9923400" y="4500000"/>
+          <a:ext cx="4587120" cy="4526640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1019,8 +1019,8 @@
   </sheetPr>
   <dimension ref="A1:Y274"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A230" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E28" activeCellId="0" pane="topLeft" sqref="E28"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A6" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G35" activeCellId="0" pane="topLeft" sqref="G35:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
